--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sdc2-Ptprj.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sdc2-Ptprj.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.321445333333333</v>
+        <v>0.5203476666666668</v>
       </c>
       <c r="H2">
-        <v>3.964336</v>
+        <v>1.561043</v>
       </c>
       <c r="I2">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="J2">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.904209333333332</v>
+        <v>0.4435246666666666</v>
       </c>
       <c r="N2">
-        <v>26.712628</v>
+        <v>1.330574</v>
       </c>
       <c r="O2">
-        <v>0.3928890865119899</v>
+        <v>0.02616294045579069</v>
       </c>
       <c r="P2">
-        <v>0.3928890865119899</v>
+        <v>0.02616294045579069</v>
       </c>
       <c r="Q2">
-        <v>11.76642587055644</v>
+        <v>0.2307870254091111</v>
       </c>
       <c r="R2">
-        <v>105.897832835008</v>
+        <v>2.077083228682</v>
       </c>
       <c r="S2">
-        <v>0.004014470212155929</v>
+        <v>0.0001074233166016483</v>
       </c>
       <c r="T2">
-        <v>0.004014470212155929</v>
+        <v>0.0001074233166016484</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.321445333333333</v>
+        <v>0.5203476666666668</v>
       </c>
       <c r="H3">
-        <v>3.964336</v>
+        <v>1.561043</v>
       </c>
       <c r="I3">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="J3">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>27.336114</v>
       </c>
       <c r="O3">
-        <v>0.4020593128556135</v>
+        <v>0.5375072133340244</v>
       </c>
       <c r="P3">
-        <v>0.4020593128556135</v>
+        <v>0.5375072133340244</v>
       </c>
       <c r="Q3">
-        <v>12.041060092256</v>
+        <v>4.741427711878001</v>
       </c>
       <c r="R3">
-        <v>108.369540830304</v>
+        <v>42.67284940690201</v>
       </c>
       <c r="S3">
-        <v>0.004108169940041042</v>
+        <v>0.002206969344719461</v>
       </c>
       <c r="T3">
-        <v>0.004108169940041043</v>
+        <v>0.002206969344719461</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.321445333333333</v>
+        <v>0.5203476666666668</v>
       </c>
       <c r="H4">
-        <v>3.964336</v>
+        <v>1.561043</v>
       </c>
       <c r="I4">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="J4">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.64717</v>
+        <v>7.396838666666667</v>
       </c>
       <c r="N4">
-        <v>13.94151</v>
+        <v>22.190516</v>
       </c>
       <c r="O4">
-        <v>0.2050516006323966</v>
+        <v>0.4363298462101849</v>
       </c>
       <c r="P4">
-        <v>0.2050516006323966</v>
+        <v>0.4363298462101849</v>
       </c>
       <c r="Q4">
-        <v>6.140981109706667</v>
+        <v>3.848927740909779</v>
       </c>
       <c r="R4">
-        <v>55.26882998736001</v>
+        <v>34.64034966818801</v>
       </c>
       <c r="S4">
-        <v>0.002095180474473497</v>
+        <v>0.001791541714945537</v>
       </c>
       <c r="T4">
-        <v>0.002095180474473497</v>
+        <v>0.001791541714945538</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>317.889679</v>
       </c>
       <c r="I5">
-        <v>0.819340166699254</v>
+        <v>0.8361295370252257</v>
       </c>
       <c r="J5">
-        <v>0.8193401666992541</v>
+        <v>0.8361295370252259</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.904209333333332</v>
+        <v>0.4435246666666666</v>
       </c>
       <c r="N5">
-        <v>26.712628</v>
+        <v>1.330574</v>
       </c>
       <c r="O5">
-        <v>0.3928890865119899</v>
+        <v>0.02616294045579069</v>
       </c>
       <c r="P5">
-        <v>0.3928890865119899</v>
+        <v>0.02616294045579069</v>
       </c>
       <c r="Q5">
-        <v>943.5187489073791</v>
+        <v>46.99730463841622</v>
       </c>
       <c r="R5">
-        <v>8491.668740166411</v>
+        <v>422.9757417457459</v>
       </c>
       <c r="S5">
-        <v>0.3219098096370515</v>
+        <v>0.02187560729051882</v>
       </c>
       <c r="T5">
-        <v>0.3219098096370515</v>
+        <v>0.02187560729051882</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>317.889679</v>
       </c>
       <c r="I6">
-        <v>0.819340166699254</v>
+        <v>0.8361295370252257</v>
       </c>
       <c r="J6">
-        <v>0.8193401666992541</v>
+        <v>0.8361295370252259</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>27.336114</v>
       </c>
       <c r="O6">
-        <v>0.4020593128556135</v>
+        <v>0.5375072133340244</v>
       </c>
       <c r="P6">
-        <v>0.4020593128556135</v>
+        <v>0.5375072133340244</v>
       </c>
       <c r="Q6">
         <v>965.5409449519341</v>
@@ -818,10 +818,10 @@
         <v>8689.868504567406</v>
       </c>
       <c r="S6">
-        <v>0.3294233444181059</v>
+        <v>0.4494256574326971</v>
       </c>
       <c r="T6">
-        <v>0.3294233444181059</v>
+        <v>0.4494256574326971</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>317.889679</v>
       </c>
       <c r="I7">
-        <v>0.819340166699254</v>
+        <v>0.8361295370252257</v>
       </c>
       <c r="J7">
-        <v>0.8193401666992541</v>
+        <v>0.8361295370252259</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.64717</v>
+        <v>7.396838666666667</v>
       </c>
       <c r="N7">
-        <v>13.94151</v>
+        <v>22.190516</v>
       </c>
       <c r="O7">
-        <v>0.2050516006323966</v>
+        <v>0.4363298462101849</v>
       </c>
       <c r="P7">
-        <v>0.2050516006323966</v>
+        <v>0.4363298462101849</v>
       </c>
       <c r="Q7">
-        <v>492.4291265194767</v>
+        <v>783.7928897871517</v>
       </c>
       <c r="R7">
-        <v>4431.86213867529</v>
+        <v>7054.136008084365</v>
       </c>
       <c r="S7">
-        <v>0.1680070126440966</v>
+        <v>0.3648282723020098</v>
       </c>
       <c r="T7">
-        <v>0.1680070126440967</v>
+        <v>0.3648282723020099</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.04284166666666</v>
+        <v>20.24706</v>
       </c>
       <c r="H8">
-        <v>66.128525</v>
+        <v>60.74118</v>
       </c>
       <c r="I8">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="J8">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.904209333333332</v>
+        <v>0.4435246666666666</v>
       </c>
       <c r="N8">
-        <v>26.712628</v>
+        <v>1.330574</v>
       </c>
       <c r="O8">
-        <v>0.3928890865119899</v>
+        <v>0.02616294045579069</v>
       </c>
       <c r="P8">
-        <v>0.3928890865119899</v>
+        <v>0.02616294045579069</v>
       </c>
       <c r="Q8">
-        <v>196.2740765015222</v>
+        <v>8.98007053748</v>
       </c>
       <c r="R8">
-        <v>1766.4666885137</v>
+        <v>80.82063483732</v>
       </c>
       <c r="S8">
-        <v>0.06696480666278253</v>
+        <v>0.004179909848670223</v>
       </c>
       <c r="T8">
-        <v>0.06696480666278254</v>
+        <v>0.004179909848670223</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.04284166666666</v>
+        <v>20.24706</v>
       </c>
       <c r="H9">
-        <v>66.128525</v>
+        <v>60.74118</v>
       </c>
       <c r="I9">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="J9">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>27.336114</v>
       </c>
       <c r="O9">
-        <v>0.4020593128556135</v>
+        <v>0.5375072133340244</v>
       </c>
       <c r="P9">
-        <v>0.4020593128556135</v>
+        <v>0.5375072133340244</v>
       </c>
       <c r="Q9">
-        <v>200.85521089465</v>
+        <v>184.49198010828</v>
       </c>
       <c r="R9">
-        <v>1807.69689805185</v>
+        <v>1660.42782097452</v>
       </c>
       <c r="S9">
-        <v>0.06852779849746655</v>
+        <v>0.08587458655660786</v>
       </c>
       <c r="T9">
-        <v>0.06852779849746657</v>
+        <v>0.08587458655660787</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.04284166666666</v>
+        <v>20.24706</v>
       </c>
       <c r="H10">
-        <v>66.128525</v>
+        <v>60.74118</v>
       </c>
       <c r="I10">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="J10">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.64717</v>
+        <v>7.396838666666667</v>
       </c>
       <c r="N10">
-        <v>13.94151</v>
+        <v>22.190516</v>
       </c>
       <c r="O10">
-        <v>0.2050516006323966</v>
+        <v>0.4363298462101849</v>
       </c>
       <c r="P10">
-        <v>0.2050516006323966</v>
+        <v>0.4363298462101849</v>
       </c>
       <c r="Q10">
-        <v>102.4368325080833</v>
+        <v>149.76423629432</v>
       </c>
       <c r="R10">
-        <v>921.93149257275</v>
+        <v>1347.87812664888</v>
       </c>
       <c r="S10">
-        <v>0.03494940751382639</v>
+        <v>0.06971003219322951</v>
       </c>
       <c r="T10">
-        <v>0.0349494075138264</v>
+        <v>0.06971003219322952</v>
       </c>
     </row>
   </sheetData>
